--- a/data/source/industries/iron_steel_foundries.xlsx
+++ b/data/source/industries/iron_steel_foundries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\03_iron and steel foundries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A42341C-89C5-4E83-A491-2459EF17691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03AB182-CE9A-4231-BAB8-2ED451C63D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +490,23 @@
       <c r="E3">
         <v>97.04</v>
       </c>
+      <c r="F3">
+        <v>2.42</v>
+      </c>
+      <c r="G3">
+        <v>40.1</v>
+      </c>
       <c r="H3">
         <v>2.7</v>
       </c>
       <c r="I3">
         <v>4.2</v>
+      </c>
+      <c r="J3">
+        <v>2.4</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
       </c>
       <c r="L3">
         <v>1.2</v>
@@ -516,11 +528,14 @@
       <c r="D4">
         <v>173.3</v>
       </c>
+      <c r="E4">
+        <v>96.61</v>
+      </c>
       <c r="F4">
-        <v>2.42</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G4">
-        <v>40.1</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H4">
         <v>2.1</v>
@@ -529,10 +544,10 @@
         <v>2.9</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>0.8</v>
@@ -551,11 +566,35 @@
       <c r="C5">
         <v>8.8000000000000007</v>
       </c>
+      <c r="D5">
+        <v>156.6</v>
+      </c>
+      <c r="E5">
+        <v>98.81</v>
+      </c>
+      <c r="F5">
+        <v>2.54</v>
+      </c>
+      <c r="G5">
+        <v>38.9</v>
+      </c>
+      <c r="H5">
+        <v>2.1</v>
+      </c>
+      <c r="I5">
+        <v>3.5</v>
+      </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -569,28 +608,34 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D6">
-        <v>156.6</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="E6">
-        <v>96.61</v>
+        <v>106.52</v>
       </c>
       <c r="F6">
-        <v>2.4900000000000002</v>
+        <v>2.63</v>
       </c>
       <c r="G6">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="H6">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
         <v>3.5</v>
       </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3.2</v>
+      </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -604,19 +649,34 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D7">
-        <v>163.69999999999999</v>
+        <v>168.2</v>
+      </c>
+      <c r="E7">
+        <v>113.28</v>
+      </c>
+      <c r="F7">
+        <v>2.71</v>
+      </c>
+      <c r="G7">
+        <v>41.8</v>
+      </c>
+      <c r="H7">
+        <v>3.7</v>
       </c>
       <c r="I7">
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1.4</v>
+        <v>2.1</v>
+      </c>
+      <c r="K7">
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -630,25 +690,34 @@
         <v>8.9</v>
       </c>
       <c r="D8">
-        <v>168.2</v>
+        <v>181.9</v>
       </c>
       <c r="E8">
-        <v>98.81</v>
+        <v>119.84</v>
       </c>
       <c r="F8">
-        <v>2.54</v>
+        <v>2.8</v>
+      </c>
+      <c r="G8">
+        <v>42.8</v>
       </c>
       <c r="H8">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="I8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.3</v>
+      </c>
+      <c r="L8">
+        <v>1.4</v>
+      </c>
+      <c r="M8">
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -662,22 +731,34 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>181.9</v>
+        <v>194.6</v>
+      </c>
+      <c r="E9">
+        <v>125.72</v>
+      </c>
+      <c r="F9">
+        <v>2.89</v>
       </c>
       <c r="G9">
-        <v>38.9</v>
+        <v>43.5</v>
+      </c>
+      <c r="H9">
+        <v>5.5</v>
       </c>
       <c r="I9">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J9">
-        <v>2.1</v>
+        <v>3.2</v>
+      </c>
+      <c r="K9">
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -691,25 +772,31 @@
         <v>11.6</v>
       </c>
       <c r="D10">
-        <v>194.6</v>
+        <v>205.8</v>
+      </c>
+      <c r="E10">
+        <v>128.57</v>
       </c>
       <c r="F10">
-        <v>2.63</v>
+        <v>2.99</v>
+      </c>
+      <c r="G10">
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="I10">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L10">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
         <v>0.9</v>
@@ -726,28 +813,34 @@
         <v>12.2</v>
       </c>
       <c r="D11">
-        <v>205.8</v>
+        <v>195.3</v>
       </c>
       <c r="E11">
-        <v>106.52</v>
+        <v>127.71</v>
       </c>
       <c r="F11">
-        <v>2.71</v>
+        <v>3.07</v>
       </c>
       <c r="G11">
-        <v>40.5</v>
+        <v>41.6</v>
+      </c>
+      <c r="H11">
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J11">
-        <v>3.2</v>
+        <v>3.1</v>
+      </c>
+      <c r="K11">
+        <v>4.7</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -761,19 +854,31 @@
         <v>11.5</v>
       </c>
       <c r="D12">
-        <v>195.3</v>
+        <v>189</v>
+      </c>
+      <c r="E12">
+        <v>139.86000000000001</v>
+      </c>
+      <c r="F12">
+        <v>3.33</v>
+      </c>
+      <c r="G12">
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I12">
+        <v>4.8</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M12">
         <v>0.9</v>
@@ -790,31 +895,34 @@
         <v>11.7</v>
       </c>
       <c r="D13">
-        <v>189</v>
+        <v>197.6</v>
       </c>
       <c r="E13">
-        <v>113.28</v>
+        <v>150.22999999999999</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>3.56</v>
       </c>
       <c r="G13">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="H13">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I13">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K13">
+        <v>5.6</v>
       </c>
       <c r="L13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -828,28 +936,34 @@
         <v>11.9</v>
       </c>
       <c r="D14">
-        <v>197.6</v>
+        <v>190.2</v>
       </c>
       <c r="E14">
-        <v>119.84</v>
+        <v>151.03</v>
       </c>
       <c r="F14">
-        <v>2.89</v>
+        <v>3.72</v>
       </c>
       <c r="G14">
-        <v>42.8</v>
+        <v>40.6</v>
+      </c>
+      <c r="H14">
+        <v>3.9</v>
+      </c>
+      <c r="I14">
+        <v>4.5</v>
       </c>
       <c r="J14">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="L14">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M14">
-        <v>0.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,25 +977,34 @@
         <v>10.7</v>
       </c>
       <c r="D15">
-        <v>190.2</v>
+        <v>180.2</v>
+      </c>
+      <c r="E15">
+        <v>164.43</v>
       </c>
       <c r="F15">
-        <v>2.99</v>
+        <v>4.04</v>
+      </c>
+      <c r="G15">
+        <v>40.700000000000003</v>
       </c>
       <c r="H15">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="I15">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
-        <v>4.9000000000000004</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15">
+        <v>3.9</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -895,25 +1018,34 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D16">
-        <v>180.2</v>
+        <v>184.9</v>
       </c>
       <c r="E16">
-        <v>125.72</v>
+        <v>183.99</v>
       </c>
       <c r="F16">
-        <v>3.07</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G16">
-        <v>43.5</v>
+        <v>42.2</v>
+      </c>
+      <c r="H16">
+        <v>4.8</v>
+      </c>
+      <c r="I16">
+        <v>4.4000000000000004</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>3.9</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,19 +1059,34 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>184.9</v>
+        <v>200.7</v>
+      </c>
+      <c r="E17">
+        <v>206.54</v>
       </c>
       <c r="F17">
-        <v>3.33</v>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G17">
+        <v>43.3</v>
       </c>
       <c r="H17">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="I17">
-        <v>5.8</v>
+        <v>5.3</v>
+      </c>
+      <c r="J17">
+        <v>4.5</v>
+      </c>
+      <c r="K17">
+        <v>4.7</v>
       </c>
       <c r="L17">
-        <v>2.4</v>
+        <v>2.9</v>
+      </c>
+      <c r="M17">
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -952,214 +1099,35 @@
       <c r="C18">
         <v>13.6</v>
       </c>
+      <c r="D18">
+        <v>207</v>
+      </c>
       <c r="E18">
-        <v>128.57</v>
+        <v>213.03</v>
       </c>
       <c r="F18">
-        <v>3.56</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G18">
-        <v>43</v>
+        <v>42.1</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>4.5999999999999996</v>
       </c>
       <c r="J18">
-        <v>2.2000000000000002</v>
+        <v>3.9</v>
       </c>
       <c r="K18">
-        <v>4.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="L18">
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>200.7</v>
-      </c>
-      <c r="F19">
-        <v>3.72</v>
-      </c>
-      <c r="H19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I19">
-        <v>4.5</v>
-      </c>
-      <c r="J19">
-        <v>3.2</v>
-      </c>
-      <c r="L19">
-        <v>1.5</v>
-      </c>
-      <c r="M19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>207</v>
-      </c>
-      <c r="E20">
-        <v>127.71</v>
-      </c>
-      <c r="G20">
-        <v>41.6</v>
-      </c>
-      <c r="J20">
-        <v>4.5</v>
-      </c>
-      <c r="K20">
-        <v>4.7</v>
-      </c>
-      <c r="M20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>4.04</v>
-      </c>
-      <c r="H21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I21">
-        <v>3.6</v>
-      </c>
-      <c r="J21">
-        <v>3.9</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
         <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>139.86000000000001</v>
-      </c>
-      <c r="F22">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="G22">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>3.9</v>
-      </c>
-      <c r="I23">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L23">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>150.22999999999999</v>
-      </c>
-      <c r="F24">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="G24">
-        <v>42.2</v>
-      </c>
-      <c r="I24">
-        <v>5.3</v>
-      </c>
-      <c r="K24">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="I25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K25">
-        <v>5.6</v>
-      </c>
-      <c r="L25">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>151.03</v>
-      </c>
-      <c r="G26">
-        <v>40.6</v>
-      </c>
-      <c r="H26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>164.43</v>
-      </c>
-      <c r="K27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <v>4.8</v>
-      </c>
-      <c r="K28">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>183.99</v>
-      </c>
-      <c r="G29">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="K29">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>206.54</v>
-      </c>
-      <c r="H30">
-        <v>6.2</v>
-      </c>
-      <c r="K30">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>213.03</v>
-      </c>
-      <c r="G31">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34">
-        <v>42.1</v>
       </c>
     </row>
   </sheetData>
